--- a/_model_results/model_performance.xlsx
+++ b/_model_results/model_performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model Type</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>ARD</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +429,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.7566000000000001</v>
+        <v>0.7791</v>
       </c>
       <c r="C2">
-        <v>0.7602</v>
+        <v>0.7792</v>
       </c>
       <c r="D2">
-        <v>0.0036</v>
+        <v>0.0001</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,16 +446,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.7097</v>
+        <v>0.7413999999999999</v>
       </c>
       <c r="C3">
-        <v>0.7339</v>
+        <v>0.7524</v>
       </c>
       <c r="D3">
-        <v>0.0242</v>
+        <v>0.011</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,16 +463,33 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7057</v>
+        <v>0.7397</v>
       </c>
       <c r="C4">
-        <v>0.7411</v>
+        <v>0.757</v>
       </c>
       <c r="D4">
-        <v>0.0354</v>
+        <v>0.0173</v>
       </c>
       <c r="E4">
-        <v>58</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.7567</v>
+      </c>
+      <c r="C5">
+        <v>0.7536</v>
+      </c>
+      <c r="D5">
+        <v>0.0031</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
